--- a/biology/Botanique/Landes_(IGP)/Landes_(IGP).xlsx
+++ b/biology/Botanique/Landes_(IGP)/Landes_(IGP).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le landes, appelé vin de pays des terroirs landais jusqu'en 2009, est un vin français d'indication géographique protégée (le nouveau nom des vins de pays) de zone, produit à côté de l'appellation Tursan, dans le département des Landes.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coteaux-de-chalosse : dans la gamme des vins de pays, les coteaux de Chalosse déclinent une large palette de vins secs et moelleux
 Côtes-de-l'adour : situé à flanc de coteaux, le vignoble des Côtes de l'Adour plonge ses racines dans un sous-sol argilo-calcaire et de sable à gravettes issues des Pyrénées voisines
@@ -549,10 +563,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cépages blancs
-Sont plantés[4]: aranel, arriloba, baroque, chardonnay, chasan, chenin, clairette, clairette rose (Rs), claverie, colombard, courbu blanc, crouchen, gros manseng, liliorila, listan, mauzac, mauzac rose (Rs), merlot blanc, meslier Saint-François, muscadelle, ondenc, perdea, petit courbu, petit manseng, raffiat de moncade, sauvignon blanc, sauvignon gris (G), semillon, ugni blanc, villard blanc.
-Cépages noirs
-Sont plantés[4]: abouriou,  alicante Henri Bouschet,  arinarnoa,  bouchalès,  cabernet franc,  cabernet sauvignon,  chambourcin,  cinsault, côt,  couderc,  courbu noir,  égiodola,  ékigaïna,  fer,  gamay,  gamay de bouze,  gamay de chaudenay,  gamay fréaux,  Grolleau,  jurançon noir,  mérille,  merlot,  muscat de Hambourg,  négrette,  petit verdot,  plantet,  portan,  semebat,  syrah,  tannat,  valdiguié,  villard noir.
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont plantés: aranel, arriloba, baroque, chardonnay, chasan, chenin, clairette, clairette rose (Rs), claverie, colombard, courbu blanc, crouchen, gros manseng, liliorila, listan, mauzac, mauzac rose (Rs), merlot blanc, meslier Saint-François, muscadelle, ondenc, perdea, petit courbu, petit manseng, raffiat de moncade, sauvignon blanc, sauvignon gris (G), semillon, ugni blanc, villard blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Landes_(IGP)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Landes_(IGP)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cépages noirs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont plantés: abouriou,  alicante Henri Bouschet,  arinarnoa,  bouchalès,  cabernet franc,  cabernet sauvignon,  chambourcin,  cinsault, côt,  couderc,  courbu noir,  égiodola,  ékigaïna,  fer,  gamay,  gamay de bouze,  gamay de chaudenay,  gamay fréaux,  Grolleau,  jurançon noir,  mérille,  merlot,  muscat de Hambourg,  négrette,  petit verdot,  plantet,  portan,  semebat,  syrah,  tannat,  valdiguié,  villard noir.
 </t>
         </is>
       </c>
